--- a/RobotSoftware/data/size_data.xlsx
+++ b/RobotSoftware/data/size_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieng\PycharmProjects\SizeDetect\new_datasets\train\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieng\PycharmProjects\RobotSoftware\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -370,16 +370,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -397,27 +394,39 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>257.07002936943081</v>
+        <v>259.00772189261079</v>
       </c>
       <c r="B2">
-        <v>142.3376267892647</v>
+        <v>148</v>
       </c>
       <c r="C2">
-        <v>130.1729618622854</v>
+        <v>127.58134659894451</v>
       </c>
       <c r="D2">
         <v>0</v>
+      </c>
+      <c r="G2">
+        <f>SUM(A2:A22)/COUNT(A2:A22)</f>
+        <v>257.16512432352124</v>
+      </c>
+      <c r="H2">
+        <f>SUM(B2:B22)/COUNT(B2:B22)</f>
+        <v>143.58974284005458</v>
+      </c>
+      <c r="I2">
+        <f>SUM(C2:C22)/COUNT(A2:A22)</f>
+        <v>139.99636171429208</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>257.07002936943081</v>
+        <v>261.12257658042518</v>
       </c>
       <c r="B3">
-        <v>142.3376267892647</v>
+        <v>144.4749113168096</v>
       </c>
       <c r="C3">
-        <v>130.1729618622854</v>
+        <v>152.68922686293229</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -425,13 +434,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>259.27784324928348</v>
+        <v>257.4975728040946</v>
       </c>
       <c r="B4">
-        <v>157.28000508646991</v>
+        <v>155.24174696260019</v>
       </c>
       <c r="C4">
-        <v>140.0642709615839</v>
+        <v>120.76837334335509</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -439,13 +448,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>260.01923005808629</v>
+        <v>261.62950903902259</v>
       </c>
       <c r="B5">
-        <v>146.7514906227531</v>
+        <v>154.2368308803056</v>
       </c>
       <c r="C5">
-        <v>136.56500283747661</v>
+        <v>136.9561973771176</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -453,13 +462,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>258.86289807540982</v>
+        <v>255.03137061938091</v>
       </c>
       <c r="B6">
-        <v>159.62455951387929</v>
+        <v>141.38246001537809</v>
       </c>
       <c r="C6">
-        <v>126.2457920090804</v>
+        <v>125.8729518204765</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -467,39 +476,27 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>258.21309029559279</v>
+        <v>259.37231926325518</v>
       </c>
       <c r="B7">
-        <v>143.20963654726589</v>
+        <v>129.0348790056394</v>
       </c>
       <c r="C7">
-        <v>143.9618004888797</v>
+        <v>157.17506163510799</v>
       </c>
       <c r="D7">
         <v>0</v>
-      </c>
-      <c r="G7">
-        <f>SUM(A2:A26)/COUNT(A2:A26)</f>
-        <v>259.31548012111386</v>
-      </c>
-      <c r="H7">
-        <f>SUM(B2:B26)/COUNT(B2:B26)</f>
-        <v>140.93514236819112</v>
-      </c>
-      <c r="I7">
-        <f>SUM(C2:C26)/COUNT(C2:C26)</f>
-        <v>141.76787779619988</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>257.39075352467501</v>
+        <v>260.20376630633149</v>
       </c>
       <c r="B8">
-        <v>157.4325252290644</v>
+        <v>129.65338406690361</v>
       </c>
       <c r="C8">
-        <v>133.15029102484161</v>
+        <v>153.84407690905749</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -507,13 +504,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>257.39075352467501</v>
+        <v>259.94230129011322</v>
       </c>
       <c r="B9">
-        <v>163.47782724271809</v>
+        <v>135.6244815658294</v>
       </c>
       <c r="C9">
-        <v>122.0040982918197</v>
+        <v>148.43180252223581</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -521,13 +518,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>256.62813563598212</v>
+        <v>261.62950903902259</v>
       </c>
       <c r="B10">
-        <v>126.6056870760552</v>
+        <v>144.06248644251559</v>
       </c>
       <c r="C10">
-        <v>154.3534904043313</v>
+        <v>141.20906486483079</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -535,13 +532,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>257.07002936943081</v>
+        <v>257.0311265197272</v>
       </c>
       <c r="B11">
-        <v>148.08105888330209</v>
+        <v>157.06368135250111</v>
       </c>
       <c r="C11">
-        <v>124.61540835707279</v>
+        <v>138.57128129594531</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -549,13 +546,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>261.69065707434038</v>
+        <v>257.0311265197272</v>
       </c>
       <c r="B12">
-        <v>149.2648652563623</v>
+        <v>157.06368135250111</v>
       </c>
       <c r="C12">
-        <v>135.59498515800649</v>
+        <v>138.57128129594531</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -563,13 +560,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>260.84861510078991</v>
+        <v>253.87004549572211</v>
       </c>
       <c r="B13">
-        <v>160.37767924496231</v>
+        <v>136.70405992508049</v>
       </c>
       <c r="C13">
-        <v>134.33167906342871</v>
+        <v>142.77955035648489</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -577,13 +574,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>258.49564793241677</v>
+        <v>251.87695408671269</v>
       </c>
       <c r="B14">
-        <v>150.02999700059979</v>
+        <v>141.15594213493111</v>
       </c>
       <c r="C14">
-        <v>120.1540677630183</v>
+        <v>138.35100288758301</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -591,13 +588,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>258.37956575549862</v>
+        <v>255.40947515705051</v>
       </c>
       <c r="B15">
-        <v>146.11296999240011</v>
+        <v>140.90067423543439</v>
       </c>
       <c r="C15">
-        <v>123.1300125883206</v>
+        <v>141.38246001537809</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -605,13 +602,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>258.93628559937292</v>
+        <v>254.89213404889529</v>
       </c>
       <c r="B16">
-        <v>145.34441853748629</v>
+        <v>136.45878498652991</v>
       </c>
       <c r="C16">
-        <v>124.61540835707279</v>
+        <v>145.79780519610031</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -619,13 +616,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>260.84861510078991</v>
+        <v>255.86324472264479</v>
       </c>
       <c r="B17">
-        <v>122.0040982918197</v>
+        <v>145.6193668438371</v>
       </c>
       <c r="C17">
-        <v>165.06059493410291</v>
+        <v>139.08630414242799</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -633,13 +630,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>261.00766272276383</v>
+        <v>254.43663258265309</v>
       </c>
       <c r="B18">
-        <v>128.31601614763451</v>
+        <v>135.76818478568529</v>
       </c>
       <c r="C18">
-        <v>150.54567413247051</v>
+        <v>146.63219291819931</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -647,13 +644,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>261.00766272276383</v>
+        <v>254.6566315649369</v>
       </c>
       <c r="B19">
-        <v>144.75496537252181</v>
+        <v>141.38246001537809</v>
       </c>
       <c r="C19">
-        <v>155.30936868070771</v>
+        <v>143.80890097626079</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -661,13 +658,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>261.27571643763599</v>
+        <v>255.40947515705051</v>
       </c>
       <c r="B20">
-        <v>125.2397700413092</v>
+        <v>151.71684151734769</v>
       </c>
       <c r="C20">
-        <v>153.84407690905749</v>
+        <v>125.8729518204765</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -675,13 +672,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>259.37231926325518</v>
+        <v>255.69122002915941</v>
       </c>
       <c r="B21">
-        <v>131.82564242210239</v>
+        <v>150.23315213360871</v>
       </c>
       <c r="C21">
-        <v>155.76905982896599</v>
+        <v>130.29197979921861</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -689,13 +686,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>261.12257658042518</v>
+        <v>258.86289807540982</v>
       </c>
       <c r="B22">
-        <v>124.61540835707279</v>
+        <v>139.60659010232999</v>
       </c>
       <c r="C22">
-        <v>156.37135287513499</v>
+        <v>144.24978336205569</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -703,58 +700,58 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>261.06895640807238</v>
+        <v>291.10994486619649</v>
       </c>
       <c r="B23">
-        <v>120.93386622447829</v>
+        <v>177.77513886930311</v>
       </c>
       <c r="C23">
-        <v>159.42396306703711</v>
+        <v>135.05924625881781</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>259.55731544304427</v>
+        <v>293</v>
       </c>
       <c r="B24">
-        <v>131.36970731489049</v>
+        <v>184.70787747142779</v>
       </c>
       <c r="C24">
-        <v>154.3243337908834</v>
+        <v>150.63200191194429</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>260.84861510078991</v>
+        <v>293.00682585905741</v>
       </c>
       <c r="B25">
-        <v>129.0038759107648</v>
+        <v>177.08754896942921</v>
       </c>
       <c r="C25">
-        <v>154.73848907107759</v>
+        <v>137.80058055030099</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>259.43399931389098</v>
+        <v>295.89525173615073</v>
       </c>
       <c r="B26">
-        <v>127.0472353103364</v>
+        <v>167.04490414256881</v>
       </c>
       <c r="C26">
-        <v>159.67780058605521</v>
+        <v>152.53196386331621</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -762,10 +759,10 @@
         <v>294.24139749532179</v>
       </c>
       <c r="B27">
-        <v>153.68799562750499</v>
+        <v>166.20770138594659</v>
       </c>
       <c r="C27">
-        <v>165.02727047370081</v>
+        <v>159.17600321656531</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -773,13 +770,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>289.02768033529247</v>
+        <v>291.02749011047052</v>
       </c>
       <c r="B28">
-        <v>153.68799562750499</v>
+        <v>166.8322510787408</v>
       </c>
       <c r="C28">
-        <v>149.6161755960899</v>
+        <v>164.3471934655411</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -787,13 +784,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>294.63536787018631</v>
+        <v>292.18145047213392</v>
       </c>
       <c r="B29">
-        <v>180.23595645708431</v>
+        <v>191.23022773609819</v>
       </c>
       <c r="C29">
-        <v>139.5170240508304</v>
+        <v>131.5028516801062</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -801,13 +798,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>293.17059879871988</v>
+        <v>291.89381630997258</v>
       </c>
       <c r="B30">
-        <v>179.62182495454161</v>
+        <v>173.11845655504209</v>
       </c>
       <c r="C30">
-        <v>132.0340865079923</v>
+        <v>141.7603611733548</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -815,13 +812,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>295.006779583114</v>
+        <v>293</v>
       </c>
       <c r="B31">
-        <v>180.88670487352019</v>
+        <v>132.50283015845361</v>
       </c>
       <c r="C31">
-        <v>134.33167906342871</v>
+        <v>180.27756377319949</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -829,13 +826,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>296.23301639081348</v>
+        <v>295.32693747777228</v>
       </c>
       <c r="B32">
-        <v>169.49631264425781</v>
+        <v>177.6119365358083</v>
       </c>
       <c r="C32">
-        <v>150.8409758653132</v>
+        <v>137.3608386695422</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -843,13 +840,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>294.00680264238792</v>
+        <v>291.49614062625261</v>
       </c>
       <c r="B33">
-        <v>193.7059627373406</v>
+        <v>160.3527361787132</v>
       </c>
       <c r="C33">
-        <v>151.82226450688981</v>
+        <v>166.60432167263849</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -857,13 +854,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>285.79713084634</v>
+        <v>293.10919466983631</v>
       </c>
       <c r="B34">
-        <v>167.03592427977881</v>
+        <v>172.04650534085249</v>
       </c>
       <c r="C34">
-        <v>132.3820229487373</v>
+        <v>142.2708684165525</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -871,13 +868,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>279.03404810166091</v>
+        <v>295.16944286290891</v>
       </c>
       <c r="B35">
-        <v>145.34441853748629</v>
+        <v>177.77513886930311</v>
       </c>
       <c r="C35">
-        <v>143.9618004888797</v>
+        <v>139.53135848260061</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -885,13 +882,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>287.00522643324808</v>
+        <v>293.17059879871988</v>
       </c>
       <c r="B36">
-        <v>180.20543831971329</v>
+        <v>177.77513886930311</v>
       </c>
       <c r="C36">
-        <v>163.61540269791229</v>
+        <v>137.7425134081704</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -899,13 +896,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>287.00522643324808</v>
+        <v>295.38110975483858</v>
       </c>
       <c r="B37">
-        <v>180.20543831971329</v>
+        <v>178.63930138690091</v>
       </c>
       <c r="C37">
-        <v>163.61540269791229</v>
+        <v>152.32202729743321</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -913,13 +910,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>295.06101064017253</v>
+        <v>292.24989307098127</v>
       </c>
       <c r="B38">
-        <v>173.95401691251629</v>
+        <v>177.77513886930311</v>
       </c>
       <c r="C38">
-        <v>141.43903280212291</v>
+        <v>144.50605523645021</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -927,13 +924,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>293.027302482209</v>
+        <v>293.87412271242943</v>
       </c>
       <c r="B39">
-        <v>180.27756377319949</v>
+        <v>154.87091398968369</v>
       </c>
       <c r="C39">
-        <v>134.18271125595879</v>
+        <v>163.95426191471819</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -941,13 +938,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>292.24989307098127</v>
+        <v>294.15982050579242</v>
       </c>
       <c r="B40">
-        <v>167.70509831248421</v>
+        <v>174.9428478103635</v>
       </c>
       <c r="C40">
-        <v>148.94629904767689</v>
+        <v>142.72000560538109</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -955,13 +952,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>290.36700914532292</v>
+        <v>294.63536787018631</v>
       </c>
       <c r="B41">
-        <v>135.4400236266961</v>
+        <v>152.81688388394781</v>
       </c>
       <c r="C41">
-        <v>174.89711261195819</v>
+        <v>167.4425274534519</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -969,153 +966,153 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>293.61539469176341</v>
+        <v>315.10157092594761</v>
       </c>
       <c r="B42">
-        <v>152.85614151874961</v>
+        <v>209.1721778822413</v>
       </c>
       <c r="C42">
-        <v>166.82026255823959</v>
+        <v>153.0032679389561</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>287.76726707532248</v>
+        <v>315.93986769637041</v>
       </c>
       <c r="B43">
-        <v>148.0033783398203</v>
+        <v>185.44001725625461</v>
       </c>
       <c r="C43">
-        <v>168.60901518009049</v>
+        <v>165.0757401921918</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>284.10209432526187</v>
+        <v>315.10157092594761</v>
       </c>
       <c r="B44">
-        <v>153.16984037335811</v>
+        <v>185.39687160251651</v>
       </c>
       <c r="C44">
-        <v>162.9263637352777</v>
+        <v>151.71354586852161</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>299.04681907687967</v>
+        <v>317.6570477732235</v>
       </c>
       <c r="B45">
-        <v>145.46477236774541</v>
+        <v>153.1176018620981</v>
       </c>
       <c r="C45">
-        <v>175.045708316428</v>
+        <v>194.51735141112729</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>295.4894245146516</v>
+        <v>318.48704840228589</v>
       </c>
       <c r="B46">
-        <v>175.19132398609241</v>
+        <v>169.81460479004741</v>
       </c>
       <c r="C46">
-        <v>148.2228052628879</v>
+        <v>184.16568627190031</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>295.06101064017253</v>
+        <v>315.67388235329202</v>
       </c>
       <c r="B47">
-        <v>172.04650534085249</v>
+        <v>155.41557193537591</v>
       </c>
       <c r="C47">
-        <v>143.265487818944</v>
+        <v>197.52468200202219</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>287.78464170278443</v>
+        <v>319.49491388752972</v>
       </c>
       <c r="B48">
-        <v>160.80111939908869</v>
+        <v>183.9918476454867</v>
       </c>
       <c r="C48">
-        <v>138.7984149765407</v>
+        <v>181.51583952922681</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>287.08883642524307</v>
+        <v>316.33210396670142</v>
       </c>
       <c r="B49">
-        <v>175.823775411632</v>
+        <v>170.8156901458411</v>
       </c>
       <c r="C49">
-        <v>167.72000476985451</v>
+        <v>177.73013250431109</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>293.2047066470796</v>
+        <v>321.37517016720511</v>
       </c>
       <c r="B50">
-        <v>187.7711372921834</v>
+        <v>150.23315213360871</v>
       </c>
       <c r="C50">
-        <v>139.5170240508304</v>
+        <v>214.5600149142426</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>290</v>
+        <v>318.5121661726597</v>
       </c>
       <c r="B51">
-        <v>158.8238017426859</v>
+        <v>141.52384958020329</v>
       </c>
       <c r="C51">
-        <v>143.265487818944</v>
+        <v>218.7167117528974</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>322.30730677414061</v>
+        <v>318.14776441144448</v>
       </c>
       <c r="B52">
-        <v>178.39282496782209</v>
+        <v>186.60117898877269</v>
       </c>
       <c r="C52">
-        <v>177.0028248362155</v>
+        <v>166.73931749890309</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -1123,13 +1120,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>322.90246205317169</v>
+        <v>317.00630908548169</v>
       </c>
       <c r="B53">
-        <v>182.1867174082677</v>
+        <v>204.97804760510331</v>
       </c>
       <c r="C53">
-        <v>171.84295155751951</v>
+        <v>135.95955280891451</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -1137,13 +1134,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>322.38641410580573</v>
+        <v>313.40867888429642</v>
       </c>
       <c r="B54">
-        <v>189.4887859478761</v>
+        <v>176.5106229097841</v>
       </c>
       <c r="C54">
-        <v>172.35138525698019</v>
+        <v>153.44380078712859</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -1151,13 +1148,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>312.87217837321361</v>
+        <v>317.10093030453248</v>
       </c>
       <c r="B55">
-        <v>187.87761974221411</v>
+        <v>181.6480112745526</v>
       </c>
       <c r="C55">
-        <v>172.52536045463</v>
+        <v>157.30543537970959</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -1165,13 +1162,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>299.93332592427942</v>
+        <v>317.98427634082788</v>
       </c>
       <c r="B56">
-        <v>143.02796929272259</v>
+        <v>199.21094347449889</v>
       </c>
       <c r="C56">
-        <v>167.37084572887841</v>
+        <v>160.10309178776029</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -1179,13 +1176,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>319.23032437411081</v>
+        <v>319.3900436770063</v>
       </c>
       <c r="B57">
-        <v>208.92582415776181</v>
+        <v>160.6486850241856</v>
       </c>
       <c r="C57">
-        <v>163.61540269791229</v>
+        <v>188.4303584882224</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -1193,13 +1190,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>325.03692097975579</v>
+        <v>321.05606986942331</v>
       </c>
       <c r="B58">
-        <v>206.63494380186521</v>
+        <v>172.75416058665559</v>
       </c>
       <c r="C58">
-        <v>157.30543537970959</v>
+        <v>172.15400082484291</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -1207,13 +1204,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>322.00621112022048</v>
+        <v>319.00626953086669</v>
       </c>
       <c r="B59">
-        <v>184.7647152461746</v>
+        <v>187.41664813991309</v>
       </c>
       <c r="C59">
-        <v>182.21415971323421</v>
+        <v>175.025712396779</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -1221,13 +1218,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>318.48704840228589</v>
+        <v>317.52952618614847</v>
       </c>
       <c r="B60">
-        <v>197.29419656948861</v>
+        <v>159.81239000778379</v>
       </c>
       <c r="C60">
-        <v>148.31385639919151</v>
+        <v>174.9428478103635</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -1235,13 +1232,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>321.37517016720511</v>
+        <v>322.69180342859647</v>
       </c>
       <c r="B61">
-        <v>167.04490414256881</v>
+        <v>149.3452376207558</v>
       </c>
       <c r="C61">
-        <v>181.24568960391861</v>
+        <v>199.96499693696401</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -1249,13 +1246,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>314.37716202039871</v>
+        <v>322.69180342859647</v>
       </c>
       <c r="B62">
-        <v>176.72577627499621</v>
+        <v>151.22169156572741</v>
       </c>
       <c r="C62">
-        <v>153.8343264684446</v>
+        <v>198.15650380444239</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -1263,13 +1260,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>320.50273009757649</v>
+        <v>318.7883310285996</v>
       </c>
       <c r="B63">
-        <v>185.80904176062049</v>
+        <v>195.616972678753</v>
       </c>
       <c r="C63">
-        <v>168.07438829280329</v>
+        <v>151.16877984557519</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -1277,13 +1274,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>319.13163428278312</v>
+        <v>320.91431878306707</v>
       </c>
       <c r="B64">
-        <v>165.13025161974409</v>
+        <v>170.55790805471321</v>
       </c>
       <c r="C64">
-        <v>176.13914953808541</v>
+        <v>176.64653973401241</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -1291,167 +1288,167 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>308.93364983439398</v>
+        <v>265.00754706234312</v>
       </c>
       <c r="B65">
-        <v>160.09996876951601</v>
+        <v>139.4309865130416</v>
       </c>
       <c r="C65">
-        <v>163.41358572652399</v>
+        <v>160.5801980320114</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>313.26985172531357</v>
+        <v>265</v>
       </c>
       <c r="B66">
-        <v>177.58941409892651</v>
+        <v>147.35331689514149</v>
       </c>
       <c r="C66">
-        <v>170.98537949193201</v>
+        <v>155.2353052626882</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>311.7081968765018</v>
+        <v>261.00766272276383</v>
       </c>
       <c r="B67">
-        <v>178.01685313475241</v>
+        <v>147.35331689514149</v>
       </c>
       <c r="C67">
-        <v>163.81697103780181</v>
+        <v>152.68922686293229</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>321.82293268193303</v>
+        <v>264.51843035977657</v>
       </c>
       <c r="B68">
-        <v>172.52536045463</v>
+        <v>139.7175722663402</v>
       </c>
       <c r="C68">
-        <v>181.17670931993439</v>
+        <v>148.71785366928879</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>316.93847983480958</v>
+        <v>264.85090145211888</v>
       </c>
       <c r="B69">
-        <v>186.6815470259447</v>
+        <v>161.89502771858059</v>
       </c>
       <c r="C69">
-        <v>161.98765385053269</v>
+        <v>127.7810627597063</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>307.88309469667217</v>
+        <v>264.18554086096378</v>
       </c>
       <c r="B70">
-        <v>199.44422779313521</v>
+        <v>144.06248644251559</v>
       </c>
       <c r="C70">
-        <v>173.55690709389819</v>
+        <v>148.66068747318499</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>299.55300031880842</v>
+        <v>264.82069405543058</v>
       </c>
       <c r="B71">
-        <v>136.4734406395618</v>
+        <v>152.12166183683371</v>
       </c>
       <c r="C71">
-        <v>174.00287353949071</v>
+        <v>140.90067423543439</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>325.29525050329278</v>
+        <v>261.03064954139012</v>
       </c>
       <c r="B72">
-        <v>181.22085972646749</v>
+        <v>143.27944723511459</v>
       </c>
       <c r="C72">
-        <v>177.0028248362155</v>
+        <v>136.3084736911099</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>319.7577207824699</v>
+        <v>262.88020085202311</v>
       </c>
       <c r="B73">
-        <v>185.84133017173551</v>
+        <v>137.27709204379289</v>
       </c>
       <c r="C73">
-        <v>181.13530854032851</v>
+        <v>148.71785366928879</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>319.05642134268351</v>
+        <v>298.82770955853482</v>
       </c>
       <c r="B74">
-        <v>176.87566254292869</v>
+        <v>168.96153408394471</v>
       </c>
       <c r="C74">
-        <v>183.80968418448469</v>
+        <v>157.4357011608231</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>319.05642134268351</v>
+        <v>299.5496619927988</v>
       </c>
       <c r="B75">
-        <v>170.18813119603851</v>
+        <v>171.42053552593981</v>
       </c>
       <c r="C75">
-        <v>171.39719951037711</v>
+        <v>162.24980739587949</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>276.97292286431178</v>
+        <v>295.06101064017253</v>
       </c>
       <c r="B76">
-        <v>157.17506163510799</v>
+        <v>172.04650534085249</v>
       </c>
       <c r="C76">
-        <v>143.0314650697531</v>
+        <v>143.265487818944</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -1459,13 +1456,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>275.46506130542218</v>
+        <v>301.59907161660828</v>
       </c>
       <c r="B77">
-        <v>168.8075827680735</v>
+        <v>175.90054007876159</v>
       </c>
       <c r="C77">
-        <v>124.3261838873855</v>
+        <v>161.1365880239494</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -1473,13 +1470,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>277.1154993860863</v>
+        <v>299.29584026511287</v>
       </c>
       <c r="B78">
-        <v>178.57211428439771</v>
+        <v>157.54681843820271</v>
       </c>
       <c r="C78">
-        <v>119</v>
+        <v>174.90854753270349</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -1487,13 +1484,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>277.75168766363959</v>
+        <v>302.20853727186471</v>
       </c>
       <c r="B79">
-        <v>164.9242250247064</v>
+        <v>190.9685838037241</v>
       </c>
       <c r="C79">
-        <v>139.52060779684129</v>
+        <v>144.08677940741131</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -1501,13 +1498,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>280.67240690883739</v>
+        <v>301.05979472523393</v>
       </c>
       <c r="B80">
-        <v>177.22866585290319</v>
+        <v>164.79381056338249</v>
       </c>
       <c r="C80">
-        <v>137.64083696345361</v>
+        <v>161.55494421403509</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -1515,13 +1512,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>278.11508409289848</v>
+        <v>299.69651315956281</v>
       </c>
       <c r="B81">
-        <v>172.53985046939161</v>
+        <v>166.38810053606599</v>
       </c>
       <c r="C81">
-        <v>151.26797413861269</v>
+        <v>168.6683135624472</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -1529,13 +1526,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>276.37112729082253</v>
+        <v>299.81661061388837</v>
       </c>
       <c r="B82">
-        <v>170.17931719219001</v>
+        <v>174.61385970191481</v>
       </c>
       <c r="C82">
-        <v>128.22636234409831</v>
+        <v>167.86899654194639</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -1543,13 +1540,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>280.713376952364</v>
+        <v>299.53630831670472</v>
       </c>
       <c r="B83">
-        <v>185.16209115258991</v>
+        <v>166.5082580534671</v>
       </c>
       <c r="C83">
-        <v>116.46887996370531</v>
+        <v>165.5566368346494</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -1557,13 +1554,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>278.88707392061042</v>
+        <v>298.05033132006412</v>
       </c>
       <c r="B84">
-        <v>179.836036433191</v>
+        <v>158.11388300841901</v>
       </c>
       <c r="C84">
-        <v>135.76818478568529</v>
+        <v>165.02727047370081</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -1571,13 +1568,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>279.30270317345662</v>
+        <v>278.72925931807009</v>
       </c>
       <c r="B85">
-        <v>163.0245380303223</v>
+        <v>165.9397481015323</v>
       </c>
       <c r="C85">
-        <v>148.3947438422264</v>
+        <v>138.97481786280559</v>
       </c>
       <c r="D85">
         <v>3</v>
@@ -1585,13 +1582,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>278.72925931807009</v>
+        <v>275.49591648516309</v>
       </c>
       <c r="B86">
-        <v>151.9539403898431</v>
+        <v>158.24032355881991</v>
       </c>
       <c r="C86">
-        <v>153.07514494521959</v>
+        <v>145.60906565183359</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -1599,13 +1596,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>278.31277369175848</v>
+        <v>275.18175811634029</v>
       </c>
       <c r="B87">
-        <v>159.53056133543819</v>
+        <v>138.92443989449811</v>
       </c>
       <c r="C87">
-        <v>153.38839591051209</v>
+        <v>153.44380078712859</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -1613,13 +1610,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>274.33191575170389</v>
+        <v>276.32227561309639</v>
       </c>
       <c r="B88">
-        <v>147.2752525036029</v>
+        <v>138.69751259485511</v>
       </c>
       <c r="C88">
-        <v>159.42396306703711</v>
+        <v>169.18924315688631</v>
       </c>
       <c r="D88">
         <v>3</v>
@@ -1627,13 +1624,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>275.06544675767623</v>
+        <v>276.32227561309639</v>
       </c>
       <c r="B89">
-        <v>165.12419568312819</v>
+        <v>142.00352108310551</v>
       </c>
       <c r="C89">
-        <v>149.09393012460299</v>
+        <v>165.38742394753001</v>
       </c>
       <c r="D89">
         <v>3</v>
@@ -1641,13 +1638,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>274.5359721420856</v>
+        <v>277.01624501101008</v>
       </c>
       <c r="B90">
-        <v>150.04665940966501</v>
+        <v>143.9618004888797</v>
       </c>
       <c r="C90">
-        <v>157.5436447464638</v>
+        <v>168.68017073740469</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -1655,13 +1652,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>277.18044664081202</v>
+        <v>277.01624501101008</v>
       </c>
       <c r="B91">
-        <v>172.23530416264839</v>
+        <v>143.9618004888797</v>
       </c>
       <c r="C91">
-        <v>143.7567389724739</v>
+        <v>168.68017073740469</v>
       </c>
       <c r="D91">
         <v>3</v>
@@ -1669,13 +1666,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>277.72288346479479</v>
+        <v>278.98745491509112</v>
       </c>
       <c r="B92">
-        <v>159.84054554461451</v>
+        <v>144.5164350515193</v>
       </c>
       <c r="C92">
-        <v>149.04026301640769</v>
+        <v>166.41213898030401</v>
       </c>
       <c r="D92">
         <v>3</v>
@@ -1683,13 +1680,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>277.95323347642488</v>
+        <v>308.98867293154939</v>
       </c>
       <c r="B93">
-        <v>149.3452376207558</v>
+        <v>188.5338165953259</v>
       </c>
       <c r="C93">
-        <v>156.18578680533</v>
+        <v>154.3146136955279</v>
       </c>
       <c r="D93">
         <v>3</v>
@@ -1697,13 +1694,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>309.71277015970782</v>
+        <v>309.85480470697883</v>
       </c>
       <c r="B94">
-        <v>193.65174928205531</v>
+        <v>167.1406593262094</v>
       </c>
       <c r="C94">
-        <v>149.4021418855834</v>
+        <v>174.06320691059329</v>
       </c>
       <c r="D94">
         <v>3</v>
@@ -1711,13 +1708,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>310.35785796399608</v>
+        <v>307.10421683851882</v>
       </c>
       <c r="B95">
-        <v>194.58931111445969</v>
+        <v>176.70597047072289</v>
       </c>
       <c r="C95">
-        <v>150.37619492459569</v>
+        <v>168.60011862392031</v>
       </c>
       <c r="D95">
         <v>3</v>
@@ -1725,13 +1722,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>309.71277015970782</v>
+        <v>308.56117707838752</v>
       </c>
       <c r="B96">
-        <v>174.8628033630938</v>
+        <v>185.6475154695047</v>
       </c>
       <c r="C96">
-        <v>163.62457028209431</v>
+        <v>153.5740863557391</v>
       </c>
       <c r="D96">
         <v>3</v>
@@ -1739,13 +1736,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>309.46728421595708</v>
+        <v>307.23443817384788</v>
       </c>
       <c r="B97">
-        <v>168.96153408394471</v>
+        <v>150.2697574364183</v>
       </c>
       <c r="C97">
-        <v>169.0976049505137</v>
+        <v>180.27756377319949</v>
       </c>
       <c r="D97">
         <v>3</v>
@@ -1753,141 +1750,15 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>309.58359129643799</v>
+        <v>308.76852171165382</v>
       </c>
       <c r="B98">
-        <v>174.00287353949071</v>
+        <v>158.927656498169</v>
       </c>
       <c r="C98">
-        <v>166.9401090211696</v>
+        <v>182.1867174082677</v>
       </c>
       <c r="D98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>305</v>
-      </c>
-      <c r="B99">
-        <v>174.1522322567242</v>
-      </c>
-      <c r="C99">
-        <v>175.025712396779</v>
-      </c>
-      <c r="D99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>308.36666486505959</v>
-      </c>
-      <c r="B100">
-        <v>163.62457028209431</v>
-      </c>
-      <c r="C100">
-        <v>176.87566254292869</v>
-      </c>
-      <c r="D100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>309.23453882126432</v>
-      </c>
-      <c r="B101">
-        <v>172.20046457544771</v>
-      </c>
-      <c r="C101">
-        <v>166.41213898030401</v>
-      </c>
-      <c r="D101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>308.60006480880719</v>
-      </c>
-      <c r="B102">
-        <v>155.93909067324969</v>
-      </c>
-      <c r="C102">
-        <v>181.6177304119837</v>
-      </c>
-      <c r="D102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>308.60006480880719</v>
-      </c>
-      <c r="B103">
-        <v>171.29214809792069</v>
-      </c>
-      <c r="C103">
-        <v>168.07438829280329</v>
-      </c>
-      <c r="D103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>309.02588888311612</v>
-      </c>
-      <c r="B104">
-        <v>171.3300907604966</v>
-      </c>
-      <c r="C104">
-        <v>172.17723426748381</v>
-      </c>
-      <c r="D104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>311.20732639190868</v>
-      </c>
-      <c r="B105">
-        <v>160.3527361787132</v>
-      </c>
-      <c r="C105">
-        <v>183.07648674802559</v>
-      </c>
-      <c r="D105">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>308.76852171165382</v>
-      </c>
-      <c r="B106">
-        <v>189.1903803051307</v>
-      </c>
-      <c r="C106">
-        <v>149.1207564358497</v>
-      </c>
-      <c r="D106">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>307.00651458886023</v>
-      </c>
-      <c r="B107">
-        <v>174.63103962354461</v>
-      </c>
-      <c r="C107">
-        <v>154.3146136955279</v>
-      </c>
-      <c r="D107">
         <v>3</v>
       </c>
     </row>
